--- a/ky/downloads/data-excel/4.b.1.1.xlsx
+++ b/ky/downloads/data-excel/4.b.1.1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>4.b.1.1 Расмий өкмөттөрдүн жана мамлекеттердин официалдык келишимдердин жана макулдашуулардын кабыл алуучу мамлекеттердин эсебинен кадрларды чет өлкөлордө даярдоо үчүн Кыргызстанга берилген орундардын саны*</t>
   </si>
@@ -110,7 +110,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +148,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -178,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -202,6 +209,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -506,11 +516,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -518,7 +526,7 @@
     <col min="4" max="9" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -535,7 +543,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -552,7 +560,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -564,8 +572,10 @@
       <c r="I3" s="4"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -599,8 +609,14 @@
       <c r="K4" s="6">
         <v>2021</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="6">
+        <v>2022</v>
+      </c>
+      <c r="M4" s="6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -634,8 +650,14 @@
       <c r="K5" s="2">
         <v>375</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="2">
+        <v>500</v>
+      </c>
+      <c r="M5" s="2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -669,8 +691,14 @@
       <c r="K6" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -704,8 +732,14 @@
       <c r="K7" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="2">
+        <v>23</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -739,8 +773,14 @@
       <c r="K8" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="7">
+        <v>7</v>
+      </c>
+      <c r="M8" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -774,8 +814,14 @@
       <c r="K9" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L9" s="2">
+        <v>23</v>
+      </c>
+      <c r="M9" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>25</v>
       </c>
@@ -809,15 +855,21 @@
       <c r="K10" s="4">
         <v>150</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="L10" s="4">
+        <v>172</v>
+      </c>
+      <c r="M10" s="4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="2"/>
@@ -829,5 +881,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>